--- a/Chargebacks Lori Template.xlsx
+++ b/Chargebacks Lori Template.xlsx
@@ -5,16 +5,16 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laughreyl\Documents\chargebacks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laughreyl\Documents\GitHub\chargebacks\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="42444" yWindow="10632" windowWidth="25128" windowHeight="18540" tabRatio="500"/>
+    <workbookView xWindow="43620" yWindow="10635" windowWidth="25125" windowHeight="18540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Oct '15 Lori" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -1725,6 +1725,60 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1741,60 +1795,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2143,42 +2143,42 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AZ137"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="68" zoomScaleNormal="68" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="AN20" sqref="AK20:AN20"/>
+    <sheetView tabSelected="1" topLeftCell="AE85" zoomScale="68" zoomScaleNormal="68" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="AX129" sqref="AX129:AX131"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="3" customWidth="1"/>
-    <col min="3" max="3" width="17.3984375" customWidth="1"/>
-    <col min="4" max="4" width="20.59765625" customWidth="1"/>
-    <col min="5" max="5" width="10.8984375" customWidth="1"/>
+    <col min="3" max="3" width="17.375" customWidth="1"/>
+    <col min="4" max="4" width="20.625" customWidth="1"/>
+    <col min="5" max="5" width="10.875" customWidth="1"/>
     <col min="6" max="10" width="11" customWidth="1"/>
-    <col min="11" max="11" width="5.3984375" customWidth="1"/>
-    <col min="12" max="12" width="38.3984375" customWidth="1"/>
-    <col min="13" max="13" width="17.3984375" customWidth="1"/>
+    <col min="11" max="11" width="5.375" customWidth="1"/>
+    <col min="12" max="12" width="38.375" customWidth="1"/>
+    <col min="13" max="13" width="17.375" customWidth="1"/>
     <col min="14" max="14" width="21" customWidth="1"/>
     <col min="15" max="15" width="11" customWidth="1"/>
-    <col min="16" max="20" width="7.09765625" customWidth="1"/>
+    <col min="16" max="20" width="7.125" customWidth="1"/>
     <col min="21" max="22" width="11" customWidth="1"/>
-    <col min="23" max="27" width="7.09765625" customWidth="1"/>
+    <col min="23" max="27" width="7.125" customWidth="1"/>
     <col min="28" max="29" width="11" customWidth="1"/>
-    <col min="30" max="34" width="7.09765625" customWidth="1"/>
+    <col min="30" max="34" width="7.125" customWidth="1"/>
     <col min="35" max="36" width="11" customWidth="1"/>
-    <col min="37" max="41" width="7.09765625" customWidth="1"/>
+    <col min="37" max="41" width="7.125" customWidth="1"/>
     <col min="42" max="43" width="11" customWidth="1"/>
-    <col min="44" max="48" width="7.09765625" customWidth="1"/>
-    <col min="51" max="51" width="21.09765625" customWidth="1"/>
+    <col min="44" max="48" width="7.125" customWidth="1"/>
+    <col min="51" max="51" width="21.125" customWidth="1"/>
     <col min="52" max="52" width="34" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" ht="24" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="357" t="s">
+    <row r="1" spans="1:52" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="339" t="s">
         <v>122</v>
       </c>
-      <c r="B1" s="357"/>
-      <c r="C1" s="357"/>
-      <c r="D1" s="357"/>
+      <c r="B1" s="339"/>
+      <c r="C1" s="339"/>
+      <c r="D1" s="339"/>
       <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2186,10 +2186,10 @@
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
-      <c r="L1" s="357"/>
-      <c r="M1" s="357"/>
-      <c r="N1" s="357"/>
-      <c r="O1" s="357"/>
+      <c r="L1" s="339"/>
+      <c r="M1" s="339"/>
+      <c r="N1" s="339"/>
+      <c r="O1" s="339"/>
       <c r="P1" s="315">
         <v>42513</v>
       </c>
@@ -2269,7 +2269,7 @@
         <f t="shared" si="0"/>
         <v>42532</v>
       </c>
-      <c r="AJ1" s="358">
+      <c r="AJ1" s="336">
         <f t="shared" si="0"/>
         <v>42533</v>
       </c>
@@ -2322,71 +2322,71 @@
         <v>42545</v>
       </c>
     </row>
-    <row r="2" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:52" x14ac:dyDescent="0.25">
       <c r="M2" s="111"/>
       <c r="N2" s="112"/>
       <c r="O2" s="317" t="s">
         <v>1</v>
       </c>
-      <c r="P2" s="338" t="s">
+      <c r="P2" s="356" t="s">
         <v>2</v>
       </c>
-      <c r="Q2" s="339"/>
-      <c r="R2" s="339"/>
-      <c r="S2" s="339"/>
-      <c r="T2" s="340"/>
+      <c r="Q2" s="357"/>
+      <c r="R2" s="357"/>
+      <c r="S2" s="357"/>
+      <c r="T2" s="358"/>
       <c r="U2" s="5" t="s">
         <v>3</v>
       </c>
       <c r="V2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="W2" s="338" t="s">
+      <c r="W2" s="356" t="s">
         <v>2</v>
       </c>
-      <c r="X2" s="339"/>
-      <c r="Y2" s="339"/>
-      <c r="Z2" s="339"/>
-      <c r="AA2" s="340"/>
+      <c r="X2" s="357"/>
+      <c r="Y2" s="357"/>
+      <c r="Z2" s="357"/>
+      <c r="AA2" s="358"/>
       <c r="AB2" s="5" t="s">
         <v>3</v>
       </c>
       <c r="AC2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="AD2" s="338" t="s">
+      <c r="AD2" s="356" t="s">
         <v>2</v>
       </c>
-      <c r="AE2" s="339"/>
-      <c r="AF2" s="339"/>
-      <c r="AG2" s="339"/>
-      <c r="AH2" s="340"/>
+      <c r="AE2" s="357"/>
+      <c r="AF2" s="357"/>
+      <c r="AG2" s="357"/>
+      <c r="AH2" s="358"/>
       <c r="AI2" s="5" t="s">
         <v>3</v>
       </c>
       <c r="AJ2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="AK2" s="338" t="s">
+      <c r="AK2" s="356" t="s">
         <v>2</v>
       </c>
-      <c r="AL2" s="339"/>
-      <c r="AM2" s="339"/>
-      <c r="AN2" s="339"/>
-      <c r="AO2" s="340"/>
+      <c r="AL2" s="357"/>
+      <c r="AM2" s="357"/>
+      <c r="AN2" s="357"/>
+      <c r="AO2" s="358"/>
       <c r="AP2" s="5" t="s">
         <v>3</v>
       </c>
       <c r="AQ2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="AR2" s="338" t="s">
+      <c r="AR2" s="356" t="s">
         <v>2</v>
       </c>
-      <c r="AS2" s="339"/>
-      <c r="AT2" s="339"/>
-      <c r="AU2" s="339"/>
-      <c r="AV2" s="340"/>
+      <c r="AS2" s="357"/>
+      <c r="AT2" s="357"/>
+      <c r="AU2" s="357"/>
+      <c r="AV2" s="358"/>
       <c r="AW2" s="5" t="s">
         <v>3</v>
       </c>
@@ -2394,7 +2394,7 @@
       <c r="AY2" s="3"/>
       <c r="AZ2" s="4"/>
     </row>
-    <row r="3" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:52" x14ac:dyDescent="0.25">
       <c r="C3" s="8"/>
       <c r="D3" s="9" t="s">
         <v>4</v>
@@ -2421,57 +2421,57 @@
       <c r="M3" s="13"/>
       <c r="N3" s="14"/>
       <c r="O3" s="10"/>
-      <c r="P3" s="335" t="s">
+      <c r="P3" s="353" t="s">
         <v>8</v>
       </c>
-      <c r="Q3" s="336"/>
-      <c r="R3" s="336"/>
-      <c r="S3" s="336"/>
-      <c r="T3" s="337"/>
+      <c r="Q3" s="354"/>
+      <c r="R3" s="354"/>
+      <c r="S3" s="354"/>
+      <c r="T3" s="355"/>
       <c r="U3" s="15" t="s">
         <v>9</v>
       </c>
       <c r="V3" s="16"/>
-      <c r="W3" s="335" t="s">
+      <c r="W3" s="353" t="s">
         <v>10</v>
       </c>
-      <c r="X3" s="336"/>
-      <c r="Y3" s="336"/>
-      <c r="Z3" s="336"/>
-      <c r="AA3" s="337"/>
+      <c r="X3" s="354"/>
+      <c r="Y3" s="354"/>
+      <c r="Z3" s="354"/>
+      <c r="AA3" s="355"/>
       <c r="AB3" s="15" t="s">
         <v>9</v>
       </c>
       <c r="AC3" s="16"/>
-      <c r="AD3" s="335" t="s">
+      <c r="AD3" s="353" t="s">
         <v>11</v>
       </c>
-      <c r="AE3" s="336"/>
-      <c r="AF3" s="336"/>
-      <c r="AG3" s="336"/>
-      <c r="AH3" s="337"/>
+      <c r="AE3" s="354"/>
+      <c r="AF3" s="354"/>
+      <c r="AG3" s="354"/>
+      <c r="AH3" s="355"/>
       <c r="AI3" s="15" t="s">
         <v>9</v>
       </c>
       <c r="AJ3" s="16"/>
-      <c r="AK3" s="335" t="s">
+      <c r="AK3" s="353" t="s">
         <v>12</v>
       </c>
-      <c r="AL3" s="336"/>
-      <c r="AM3" s="336"/>
-      <c r="AN3" s="336"/>
-      <c r="AO3" s="337"/>
+      <c r="AL3" s="354"/>
+      <c r="AM3" s="354"/>
+      <c r="AN3" s="354"/>
+      <c r="AO3" s="355"/>
       <c r="AP3" s="15" t="s">
         <v>9</v>
       </c>
       <c r="AQ3" s="16"/>
-      <c r="AR3" s="335" t="s">
+      <c r="AR3" s="353" t="s">
         <v>13</v>
       </c>
-      <c r="AS3" s="336"/>
-      <c r="AT3" s="336"/>
-      <c r="AU3" s="336"/>
-      <c r="AV3" s="337"/>
+      <c r="AS3" s="354"/>
+      <c r="AT3" s="354"/>
+      <c r="AU3" s="354"/>
+      <c r="AV3" s="355"/>
       <c r="AW3" s="17" t="s">
         <v>6</v>
       </c>
@@ -2481,11 +2481,11 @@
       <c r="AY3" s="13"/>
       <c r="AZ3" s="14"/>
     </row>
-    <row r="4" spans="1:52" ht="21" x14ac:dyDescent="0.4">
-      <c r="A4" s="350" t="s">
+    <row r="4" spans="1:52" ht="21" x14ac:dyDescent="0.35">
+      <c r="A4" s="347" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="351"/>
+      <c r="B4" s="348"/>
       <c r="C4" s="19" t="s">
         <v>16</v>
       </c>
@@ -2625,7 +2625,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A5" s="30"/>
       <c r="B5" s="30"/>
       <c r="C5" s="8"/>
@@ -2678,7 +2678,7 @@
       <c r="AY5" s="13"/>
       <c r="AZ5" s="14"/>
     </row>
-    <row r="6" spans="1:52" s="41" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:52" s="41" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A6" s="39"/>
       <c r="B6" s="39"/>
       <c r="C6" s="40" t="s">
@@ -2731,12 +2731,12 @@
       <c r="AV6" s="44"/>
       <c r="AW6" s="50"/>
       <c r="AX6" s="51"/>
-      <c r="AY6" s="352" t="s">
+      <c r="AY6" s="349" t="s">
         <v>27</v>
       </c>
-      <c r="AZ6" s="353"/>
+      <c r="AZ6" s="350"/>
     </row>
-    <row r="7" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A7" s="30"/>
       <c r="B7" s="30"/>
       <c r="C7" s="52" t="s">
@@ -2838,7 +2838,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A8" s="30"/>
       <c r="B8" s="30"/>
       <c r="C8" s="53"/>
@@ -2934,7 +2934,7 @@
       </c>
       <c r="AZ8" s="61"/>
     </row>
-    <row r="9" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A9" s="30"/>
       <c r="B9" s="30"/>
       <c r="C9" s="71"/>
@@ -3114,7 +3114,7 @@
       <c r="AY9" s="85"/>
       <c r="AZ9" s="86"/>
     </row>
-    <row r="10" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A10" s="30"/>
       <c r="B10" s="30"/>
       <c r="C10" s="52" t="s">
@@ -3216,7 +3216,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A11" s="30"/>
       <c r="B11" s="30"/>
       <c r="C11" s="53"/>
@@ -3312,7 +3312,7 @@
       </c>
       <c r="AZ11" s="61"/>
     </row>
-    <row r="12" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A12" s="30"/>
       <c r="B12" s="30"/>
       <c r="C12" s="53"/>
@@ -3408,7 +3408,7 @@
       </c>
       <c r="AZ12" s="61"/>
     </row>
-    <row r="13" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A13" s="30"/>
       <c r="B13" s="30"/>
       <c r="C13" s="88"/>
@@ -3588,7 +3588,7 @@
       <c r="AY13" s="94"/>
       <c r="AZ13" s="95"/>
     </row>
-    <row r="14" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A14" s="30"/>
       <c r="B14" s="30"/>
       <c r="C14" s="52" t="s">
@@ -3690,7 +3690,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A15" s="30"/>
       <c r="B15" s="30"/>
       <c r="C15" s="52"/>
@@ -3786,7 +3786,7 @@
       </c>
       <c r="AZ15" s="68"/>
     </row>
-    <row r="16" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A16" s="30"/>
       <c r="B16" s="30"/>
       <c r="C16" s="52"/>
@@ -3882,7 +3882,7 @@
       </c>
       <c r="AZ16" s="68"/>
     </row>
-    <row r="17" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A17" s="30"/>
       <c r="B17" s="30"/>
       <c r="C17" s="52"/>
@@ -3974,7 +3974,7 @@
       <c r="AY17" s="67"/>
       <c r="AZ17" s="68"/>
     </row>
-    <row r="18" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A18" s="30"/>
       <c r="B18" s="30"/>
       <c r="C18" s="96"/>
@@ -4070,7 +4070,7 @@
       </c>
       <c r="AZ18" s="98"/>
     </row>
-    <row r="19" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A19" s="30"/>
       <c r="B19" s="30"/>
       <c r="C19" s="99"/>
@@ -4250,7 +4250,7 @@
       <c r="AY19" s="103"/>
       <c r="AZ19" s="104"/>
     </row>
-    <row r="20" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A20" s="30"/>
       <c r="B20" s="30"/>
       <c r="C20" s="52" t="s">
@@ -4352,7 +4352,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A21" s="30"/>
       <c r="B21" s="30"/>
       <c r="C21" s="96"/>
@@ -4448,7 +4448,7 @@
       </c>
       <c r="AZ21" s="98"/>
     </row>
-    <row r="22" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A22" s="30"/>
       <c r="B22" s="30"/>
       <c r="C22" s="99"/>
@@ -4628,7 +4628,7 @@
       <c r="AY22" s="103"/>
       <c r="AZ22" s="104"/>
     </row>
-    <row r="23" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A23" s="30"/>
       <c r="B23" s="30"/>
       <c r="C23" s="52" t="s">
@@ -4719,7 +4719,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A24" s="30"/>
       <c r="B24" s="30"/>
       <c r="C24" s="96"/>
@@ -4804,7 +4804,7 @@
       <c r="AY24" s="67"/>
       <c r="AZ24" s="98"/>
     </row>
-    <row r="25" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A25" s="30"/>
       <c r="B25" s="30"/>
       <c r="C25" s="99"/>
@@ -4984,7 +4984,7 @@
       <c r="AY25" s="103"/>
       <c r="AZ25" s="104"/>
     </row>
-    <row r="26" spans="1:52" s="41" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:52" s="41" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A26" s="39"/>
       <c r="B26" s="39"/>
       <c r="C26" s="105"/>
@@ -5147,7 +5147,7 @@
       <c r="AY26" s="107"/>
       <c r="AZ26" s="108"/>
     </row>
-    <row r="27" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A27" s="30"/>
       <c r="B27" s="30"/>
       <c r="E27" s="109"/>
@@ -5194,7 +5194,7 @@
       <c r="AY27" s="111"/>
       <c r="AZ27" s="112"/>
     </row>
-    <row r="28" spans="1:52" s="41" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:52" s="41" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A28" s="39"/>
       <c r="B28" s="39"/>
       <c r="C28" s="40" t="s">
@@ -5247,12 +5247,12 @@
       <c r="AV28" s="44"/>
       <c r="AW28" s="50"/>
       <c r="AX28" s="51"/>
-      <c r="AY28" s="352" t="s">
+      <c r="AY28" s="349" t="s">
         <v>42</v>
       </c>
-      <c r="AZ28" s="353"/>
+      <c r="AZ28" s="350"/>
     </row>
-    <row r="29" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A29" s="30"/>
       <c r="B29" s="30"/>
       <c r="C29" s="114" t="s">
@@ -5354,7 +5354,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="30" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A30" s="30"/>
       <c r="B30" s="30"/>
       <c r="C30" s="96"/>
@@ -5450,7 +5450,7 @@
       </c>
       <c r="AZ30" s="98"/>
     </row>
-    <row r="31" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A31" s="30"/>
       <c r="B31" s="30"/>
       <c r="C31" s="99"/>
@@ -5630,7 +5630,7 @@
       <c r="AY31" s="103"/>
       <c r="AZ31" s="104"/>
     </row>
-    <row r="32" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A32" s="30"/>
       <c r="B32" s="30"/>
       <c r="C32" s="52" t="s">
@@ -5732,7 +5732,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="33" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A33" s="30"/>
       <c r="B33" s="30"/>
       <c r="C33" s="96"/>
@@ -5828,7 +5828,7 @@
       </c>
       <c r="AZ33" s="98"/>
     </row>
-    <row r="34" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A34" s="30"/>
       <c r="B34" s="30"/>
       <c r="C34" s="99"/>
@@ -6008,7 +6008,7 @@
       <c r="AY34" s="103"/>
       <c r="AZ34" s="104"/>
     </row>
-    <row r="35" spans="1:52" s="41" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:52" s="41" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A35" s="30"/>
       <c r="B35" s="30"/>
       <c r="C35" s="117"/>
@@ -6168,7 +6168,7 @@
       <c r="AY35" s="107"/>
       <c r="AZ35" s="119"/>
     </row>
-    <row r="36" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A36" s="30"/>
       <c r="B36" s="30"/>
       <c r="E36" s="109"/>
@@ -6215,7 +6215,7 @@
       <c r="AY36" s="111"/>
       <c r="AZ36" s="112"/>
     </row>
-    <row r="37" spans="1:52" s="121" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:52" s="121" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A37" s="39"/>
       <c r="B37" s="39"/>
       <c r="C37" s="120" t="s">
@@ -6268,12 +6268,12 @@
       <c r="AV37" s="124"/>
       <c r="AW37" s="130"/>
       <c r="AX37" s="131"/>
-      <c r="AY37" s="354" t="s">
+      <c r="AY37" s="351" t="s">
         <v>47</v>
       </c>
-      <c r="AZ37" s="355"/>
+      <c r="AZ37" s="352"/>
     </row>
-    <row r="38" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A38" s="30"/>
       <c r="B38" s="30"/>
       <c r="C38" s="132" t="s">
@@ -6375,7 +6375,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="39" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A39" s="30"/>
       <c r="B39" s="30"/>
       <c r="C39" s="132"/>
@@ -6471,7 +6471,7 @@
       </c>
       <c r="AZ39" s="145"/>
     </row>
-    <row r="40" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A40" s="30"/>
       <c r="B40" s="30"/>
       <c r="C40" s="132" t="s">
@@ -6573,7 +6573,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="41" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A41" s="30"/>
       <c r="B41" s="30"/>
       <c r="C41" s="146"/>
@@ -6669,7 +6669,7 @@
       </c>
       <c r="AZ41" s="148"/>
     </row>
-    <row r="42" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A42" s="30"/>
       <c r="B42" s="30"/>
       <c r="C42" s="149"/>
@@ -6849,7 +6849,7 @@
       <c r="AY42" s="159"/>
       <c r="AZ42" s="160"/>
     </row>
-    <row r="43" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A43" s="30"/>
       <c r="B43" s="30"/>
       <c r="C43" s="132" t="s">
@@ -6951,7 +6951,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="44" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A44" s="30"/>
       <c r="B44" s="30"/>
       <c r="C44" s="132" t="s">
@@ -7049,7 +7049,7 @@
       </c>
       <c r="AZ44" s="145"/>
     </row>
-    <row r="45" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A45" s="30"/>
       <c r="B45" s="30"/>
       <c r="C45" s="146"/>
@@ -7145,7 +7145,7 @@
       </c>
       <c r="AZ45" s="148"/>
     </row>
-    <row r="46" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A46" s="30"/>
       <c r="B46" s="30"/>
       <c r="C46" s="149"/>
@@ -7325,7 +7325,7 @@
       <c r="AY46" s="159"/>
       <c r="AZ46" s="160"/>
     </row>
-    <row r="47" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A47" s="30"/>
       <c r="B47" s="30"/>
       <c r="C47" s="132" t="s">
@@ -7427,7 +7427,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="48" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A48" s="30"/>
       <c r="B48" s="30"/>
       <c r="C48" s="132" t="s">
@@ -7525,7 +7525,7 @@
       </c>
       <c r="AZ48" s="145"/>
     </row>
-    <row r="49" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A49" s="30"/>
       <c r="B49" s="30"/>
       <c r="C49" s="146"/>
@@ -7621,7 +7621,7 @@
       </c>
       <c r="AZ49" s="148"/>
     </row>
-    <row r="50" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A50" s="30"/>
       <c r="B50" s="30"/>
       <c r="C50" s="149"/>
@@ -7801,7 +7801,7 @@
       <c r="AY50" s="159"/>
       <c r="AZ50" s="160"/>
     </row>
-    <row r="51" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A51" s="30"/>
       <c r="B51" s="30"/>
       <c r="C51" s="161" t="s">
@@ -7903,7 +7903,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="52" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A52" s="30"/>
       <c r="B52" s="30"/>
       <c r="C52" s="161"/>
@@ -8003,7 +8003,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="53" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A53" s="30"/>
       <c r="B53" s="30"/>
       <c r="C53" s="161"/>
@@ -8099,7 +8099,7 @@
       </c>
       <c r="AZ53" s="166"/>
     </row>
-    <row r="54" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A54" s="30"/>
       <c r="B54" s="30"/>
       <c r="C54" s="146"/>
@@ -8195,7 +8195,7 @@
       </c>
       <c r="AZ54" s="148"/>
     </row>
-    <row r="55" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A55" s="30"/>
       <c r="B55" s="30"/>
       <c r="C55" s="149"/>
@@ -8375,7 +8375,7 @@
       <c r="AY55" s="159"/>
       <c r="AZ55" s="160"/>
     </row>
-    <row r="56" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A56" s="30"/>
       <c r="B56" s="30"/>
       <c r="C56" s="161" t="s">
@@ -8477,7 +8477,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="57" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A57" s="30"/>
       <c r="B57" s="30"/>
       <c r="C57" s="161" t="s">
@@ -8573,7 +8573,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="58" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A58" s="30"/>
       <c r="B58" s="30"/>
       <c r="C58" s="133" t="s">
@@ -8669,7 +8669,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="59" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A59" s="30"/>
       <c r="B59" s="30"/>
       <c r="C59" s="132" t="s">
@@ -8844,7 +8844,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="60" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A60" s="30"/>
       <c r="B60" s="30"/>
       <c r="C60" s="149"/>
@@ -9024,7 +9024,7 @@
       <c r="AY60" s="159"/>
       <c r="AZ60" s="160"/>
     </row>
-    <row r="61" spans="1:52" s="121" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:52" s="121" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A61" s="30"/>
       <c r="B61" s="30"/>
       <c r="C61" s="171"/>
@@ -9187,7 +9187,7 @@
       <c r="AY61" s="175"/>
       <c r="AZ61" s="176"/>
     </row>
-    <row r="62" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A62" s="30"/>
       <c r="B62" s="30"/>
       <c r="E62" s="109"/>
@@ -9234,7 +9234,7 @@
       <c r="AY62" s="111"/>
       <c r="AZ62" s="112"/>
     </row>
-    <row r="63" spans="1:52" s="121" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:52" s="121" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A63" s="39"/>
       <c r="B63" s="39"/>
       <c r="C63" s="120" t="s">
@@ -9287,12 +9287,12 @@
       <c r="AV63" s="124"/>
       <c r="AW63" s="130"/>
       <c r="AX63" s="131"/>
-      <c r="AY63" s="354" t="s">
+      <c r="AY63" s="351" t="s">
         <v>66</v>
       </c>
-      <c r="AZ63" s="355"/>
+      <c r="AZ63" s="352"/>
     </row>
-    <row r="64" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A64" s="30"/>
       <c r="B64" s="30"/>
       <c r="C64" s="132" t="s">
@@ -9394,7 +9394,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="65" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A65" s="30"/>
       <c r="B65" s="30"/>
       <c r="C65" s="132"/>
@@ -9490,7 +9490,7 @@
       </c>
       <c r="AZ65" s="145"/>
     </row>
-    <row r="66" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A66" s="30"/>
       <c r="B66" s="30"/>
       <c r="C66" s="132"/>
@@ -9586,7 +9586,7 @@
       </c>
       <c r="AZ66" s="145"/>
     </row>
-    <row r="67" spans="1:52" s="121" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:52" s="121" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A67" s="30"/>
       <c r="B67" s="30"/>
       <c r="C67" s="171"/>
@@ -9749,7 +9749,7 @@
       <c r="AY67" s="175"/>
       <c r="AZ67" s="176"/>
     </row>
-    <row r="68" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A68" s="30"/>
       <c r="B68" s="30"/>
       <c r="E68" s="109"/>
@@ -9795,7 +9795,7 @@
       <c r="AY68" s="111"/>
       <c r="AZ68" s="112"/>
     </row>
-    <row r="69" spans="1:52" s="178" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:52" s="178" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A69" s="39"/>
       <c r="B69" s="39"/>
       <c r="C69" s="177" t="s">
@@ -9848,12 +9848,12 @@
       <c r="AV69" s="181"/>
       <c r="AW69" s="187"/>
       <c r="AX69" s="188"/>
-      <c r="AY69" s="341" t="s">
+      <c r="AY69" s="337" t="s">
         <v>69</v>
       </c>
-      <c r="AZ69" s="342"/>
+      <c r="AZ69" s="338"/>
     </row>
-    <row r="70" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A70" s="30"/>
       <c r="B70" s="30"/>
       <c r="C70" s="189" t="s">
@@ -9949,7 +9949,7 @@
       </c>
       <c r="AZ70" s="201"/>
     </row>
-    <row r="71" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A71" s="30"/>
       <c r="B71" s="30"/>
       <c r="C71" s="189" t="s">
@@ -10045,7 +10045,7 @@
       </c>
       <c r="AZ71" s="201"/>
     </row>
-    <row r="72" spans="1:52" s="178" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:52" s="178" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A72" s="30"/>
       <c r="B72" s="30"/>
       <c r="C72" s="202"/>
@@ -10208,7 +10208,7 @@
       <c r="AY72" s="204"/>
       <c r="AZ72" s="205"/>
     </row>
-    <row r="73" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A73" s="30"/>
       <c r="B73" s="30"/>
       <c r="E73" s="109"/>
@@ -10254,7 +10254,7 @@
       <c r="AY73" s="111"/>
       <c r="AZ73" s="112"/>
     </row>
-    <row r="74" spans="1:52" s="178" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:52" s="178" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A74" s="39"/>
       <c r="B74" s="39"/>
       <c r="C74" s="177" t="s">
@@ -10307,12 +10307,12 @@
       <c r="AV74" s="181"/>
       <c r="AW74" s="187"/>
       <c r="AX74" s="188"/>
-      <c r="AY74" s="341" t="s">
+      <c r="AY74" s="337" t="s">
         <v>72</v>
       </c>
-      <c r="AZ74" s="342"/>
+      <c r="AZ74" s="338"/>
     </row>
-    <row r="75" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A75" s="30"/>
       <c r="B75" s="30"/>
       <c r="C75" s="189" t="s">
@@ -10408,7 +10408,7 @@
       </c>
       <c r="AZ75" s="201"/>
     </row>
-    <row r="76" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A76" s="30"/>
       <c r="B76" s="30"/>
       <c r="C76" s="189" t="s">
@@ -10504,7 +10504,7 @@
       </c>
       <c r="AZ76" s="201"/>
     </row>
-    <row r="77" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A77" s="30"/>
       <c r="B77" s="30"/>
       <c r="C77" s="189" t="s">
@@ -10600,7 +10600,7 @@
       </c>
       <c r="AZ77" s="201"/>
     </row>
-    <row r="78" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A78" s="30"/>
       <c r="B78" s="30"/>
       <c r="C78" s="189" t="s">
@@ -10696,7 +10696,7 @@
       </c>
       <c r="AZ78" s="201"/>
     </row>
-    <row r="79" spans="1:52" s="178" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:52" s="178" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A79" s="30"/>
       <c r="B79" s="30"/>
       <c r="C79" s="202"/>
@@ -10859,7 +10859,7 @@
       <c r="AY79" s="204"/>
       <c r="AZ79" s="205"/>
     </row>
-    <row r="80" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A80" s="30"/>
       <c r="B80" s="30"/>
       <c r="E80" s="109"/>
@@ -10905,7 +10905,7 @@
       <c r="AY80" s="111"/>
       <c r="AZ80" s="112"/>
     </row>
-    <row r="81" spans="1:52" s="178" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:52" s="178" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A81" s="39"/>
       <c r="B81" s="39"/>
       <c r="C81" s="177" t="s">
@@ -10958,12 +10958,12 @@
       <c r="AV81" s="181"/>
       <c r="AW81" s="187"/>
       <c r="AX81" s="188"/>
-      <c r="AY81" s="341" t="s">
+      <c r="AY81" s="337" t="s">
         <v>78</v>
       </c>
-      <c r="AZ81" s="342"/>
+      <c r="AZ81" s="338"/>
     </row>
-    <row r="82" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A82" s="30"/>
       <c r="B82" s="30"/>
       <c r="C82" s="189" t="s">
@@ -11059,7 +11059,7 @@
       </c>
       <c r="AZ82" s="201"/>
     </row>
-    <row r="83" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A83" s="30"/>
       <c r="B83" s="30"/>
       <c r="C83" s="189" t="s">
@@ -11155,7 +11155,7 @@
       </c>
       <c r="AZ83" s="201"/>
     </row>
-    <row r="84" spans="1:52" s="178" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:52" s="178" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A84" s="30"/>
       <c r="B84" s="30"/>
       <c r="C84" s="202"/>
@@ -11318,7 +11318,7 @@
       <c r="AY84" s="204"/>
       <c r="AZ84" s="205"/>
     </row>
-    <row r="85" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A85" s="30"/>
       <c r="B85" s="30"/>
       <c r="E85" s="109"/>
@@ -11364,7 +11364,7 @@
       <c r="AY85" s="111"/>
       <c r="AZ85" s="112"/>
     </row>
-    <row r="86" spans="1:52" s="207" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:52" s="207" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A86" s="39"/>
       <c r="B86" s="39"/>
       <c r="C86" s="206" t="s">
@@ -11417,12 +11417,12 @@
       <c r="AV86" s="210"/>
       <c r="AW86" s="216"/>
       <c r="AX86" s="217"/>
-      <c r="AY86" s="345" t="s">
+      <c r="AY86" s="342" t="s">
         <v>81</v>
       </c>
-      <c r="AZ86" s="346"/>
+      <c r="AZ86" s="343"/>
     </row>
-    <row r="87" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A87" s="30"/>
       <c r="B87" s="30"/>
       <c r="C87" s="218" t="s">
@@ -11518,7 +11518,7 @@
       </c>
       <c r="AZ87" s="230"/>
     </row>
-    <row r="88" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A88" s="30"/>
       <c r="B88" s="30"/>
       <c r="C88" s="218" t="s">
@@ -11614,7 +11614,7 @@
       </c>
       <c r="AZ88" s="230"/>
     </row>
-    <row r="89" spans="1:52" s="207" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:52" s="207" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A89" s="30"/>
       <c r="B89" s="30"/>
       <c r="C89" s="231"/>
@@ -11777,7 +11777,7 @@
       <c r="AY89" s="233"/>
       <c r="AZ89" s="234"/>
     </row>
-    <row r="90" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A90" s="30"/>
       <c r="B90" s="30"/>
       <c r="E90" s="109"/>
@@ -11823,7 +11823,7 @@
       <c r="AY90" s="111"/>
       <c r="AZ90" s="112"/>
     </row>
-    <row r="91" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A91" s="30"/>
       <c r="B91" s="30"/>
       <c r="C91" s="235" t="s">
@@ -11859,55 +11859,55 @@
       <c r="M91" s="238"/>
       <c r="N91" s="239"/>
       <c r="O91" s="38"/>
-      <c r="P91" s="347" t="s">
+      <c r="P91" s="344" t="s">
         <v>8</v>
       </c>
-      <c r="Q91" s="348"/>
-      <c r="R91" s="348"/>
-      <c r="S91" s="348"/>
-      <c r="T91" s="349"/>
+      <c r="Q91" s="345"/>
+      <c r="R91" s="345"/>
+      <c r="S91" s="345"/>
+      <c r="T91" s="346"/>
       <c r="U91" s="240"/>
       <c r="V91" s="241"/>
-      <c r="W91" s="347" t="s">
+      <c r="W91" s="344" t="s">
         <v>10</v>
       </c>
-      <c r="X91" s="348"/>
-      <c r="Y91" s="348"/>
-      <c r="Z91" s="348"/>
-      <c r="AA91" s="349"/>
+      <c r="X91" s="345"/>
+      <c r="Y91" s="345"/>
+      <c r="Z91" s="345"/>
+      <c r="AA91" s="346"/>
       <c r="AB91" s="240"/>
       <c r="AC91" s="241"/>
-      <c r="AD91" s="347" t="s">
+      <c r="AD91" s="344" t="s">
         <v>11</v>
       </c>
-      <c r="AE91" s="348"/>
-      <c r="AF91" s="348"/>
-      <c r="AG91" s="348"/>
-      <c r="AH91" s="349"/>
+      <c r="AE91" s="345"/>
+      <c r="AF91" s="345"/>
+      <c r="AG91" s="345"/>
+      <c r="AH91" s="346"/>
       <c r="AI91" s="240"/>
       <c r="AJ91" s="241"/>
-      <c r="AK91" s="347" t="s">
+      <c r="AK91" s="344" t="s">
         <v>12</v>
       </c>
-      <c r="AL91" s="348"/>
-      <c r="AM91" s="348"/>
-      <c r="AN91" s="348"/>
-      <c r="AO91" s="349"/>
+      <c r="AL91" s="345"/>
+      <c r="AM91" s="345"/>
+      <c r="AN91" s="345"/>
+      <c r="AO91" s="346"/>
       <c r="AP91" s="240"/>
       <c r="AQ91" s="241"/>
-      <c r="AR91" s="347" t="s">
+      <c r="AR91" s="344" t="s">
         <v>13</v>
       </c>
-      <c r="AS91" s="348"/>
-      <c r="AT91" s="348"/>
-      <c r="AU91" s="348"/>
-      <c r="AV91" s="349"/>
+      <c r="AS91" s="345"/>
+      <c r="AT91" s="345"/>
+      <c r="AU91" s="345"/>
+      <c r="AV91" s="346"/>
       <c r="AW91" s="113"/>
       <c r="AX91" s="242"/>
       <c r="AY91" s="238"/>
       <c r="AZ91" s="239"/>
     </row>
-    <row r="92" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A92" s="30"/>
       <c r="B92" s="30"/>
       <c r="C92" s="235" t="s">
@@ -11943,45 +11943,45 @@
       <c r="M92" s="238"/>
       <c r="N92" s="239"/>
       <c r="O92" s="38"/>
-      <c r="P92" s="347"/>
-      <c r="Q92" s="348"/>
-      <c r="R92" s="348"/>
-      <c r="S92" s="348"/>
-      <c r="T92" s="349"/>
+      <c r="P92" s="344"/>
+      <c r="Q92" s="345"/>
+      <c r="R92" s="345"/>
+      <c r="S92" s="345"/>
+      <c r="T92" s="346"/>
       <c r="U92" s="240"/>
       <c r="V92" s="241"/>
-      <c r="W92" s="347"/>
-      <c r="X92" s="348"/>
-      <c r="Y92" s="348"/>
-      <c r="Z92" s="348"/>
-      <c r="AA92" s="349"/>
+      <c r="W92" s="344"/>
+      <c r="X92" s="345"/>
+      <c r="Y92" s="345"/>
+      <c r="Z92" s="345"/>
+      <c r="AA92" s="346"/>
       <c r="AB92" s="240"/>
       <c r="AC92" s="241"/>
-      <c r="AD92" s="347"/>
-      <c r="AE92" s="348"/>
-      <c r="AF92" s="348"/>
-      <c r="AG92" s="348"/>
-      <c r="AH92" s="349"/>
+      <c r="AD92" s="344"/>
+      <c r="AE92" s="345"/>
+      <c r="AF92" s="345"/>
+      <c r="AG92" s="345"/>
+      <c r="AH92" s="346"/>
       <c r="AI92" s="240"/>
       <c r="AJ92" s="241"/>
-      <c r="AK92" s="347"/>
-      <c r="AL92" s="348"/>
-      <c r="AM92" s="348"/>
-      <c r="AN92" s="348"/>
-      <c r="AO92" s="349"/>
+      <c r="AK92" s="344"/>
+      <c r="AL92" s="345"/>
+      <c r="AM92" s="345"/>
+      <c r="AN92" s="345"/>
+      <c r="AO92" s="346"/>
       <c r="AP92" s="240"/>
       <c r="AQ92" s="241"/>
-      <c r="AR92" s="347"/>
-      <c r="AS92" s="348"/>
-      <c r="AT92" s="348"/>
-      <c r="AU92" s="348"/>
-      <c r="AV92" s="349"/>
+      <c r="AR92" s="344"/>
+      <c r="AS92" s="345"/>
+      <c r="AT92" s="345"/>
+      <c r="AU92" s="345"/>
+      <c r="AV92" s="346"/>
       <c r="AW92" s="113"/>
       <c r="AX92" s="242"/>
       <c r="AY92" s="238"/>
       <c r="AZ92" s="239"/>
     </row>
-    <row r="93" spans="1:52" s="249" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:52" s="249" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A93" s="30"/>
       <c r="B93" s="30"/>
       <c r="C93" s="243" t="s">
@@ -12132,7 +12132,7 @@
       <c r="AY93" s="246"/>
       <c r="AZ93" s="247"/>
     </row>
-    <row r="94" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A94" s="30"/>
       <c r="B94" s="30"/>
       <c r="C94" s="235" t="s">
@@ -12164,7 +12164,7 @@
         <v>200</v>
       </c>
       <c r="K94" s="235"/>
-      <c r="L94" s="356" t="s">
+      <c r="L94" s="335" t="s">
         <v>121</v>
       </c>
       <c r="M94" s="111" t="s">
@@ -12285,7 +12285,7 @@
       <c r="AY94" s="111"/>
       <c r="AZ94" s="112"/>
     </row>
-    <row r="95" spans="1:52" ht="18" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:52" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A95" s="250"/>
       <c r="B95" s="250"/>
       <c r="C95" s="243" t="s">
@@ -12371,7 +12371,7 @@
       <c r="AY95" s="111"/>
       <c r="AZ95" s="112"/>
     </row>
-    <row r="96" spans="1:52" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:52" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="250"/>
       <c r="B96" s="250"/>
       <c r="C96" s="254" t="s">
@@ -12447,8 +12447,8 @@
       <c r="AY96" s="259"/>
       <c r="AZ96" s="260"/>
     </row>
-    <row r="100" spans="1:52" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="101" spans="1:52" s="121" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:52" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="101" spans="1:52" s="121" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A101" s="263"/>
       <c r="B101" s="263"/>
       <c r="C101" s="264" t="s">
@@ -12503,12 +12503,12 @@
       <c r="AV101" s="268"/>
       <c r="AW101" s="270"/>
       <c r="AX101" s="268"/>
-      <c r="AY101" s="343" t="s">
+      <c r="AY101" s="340" t="s">
         <v>47</v>
       </c>
-      <c r="AZ101" s="344"/>
+      <c r="AZ101" s="341"/>
     </row>
-    <row r="102" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A102" s="271"/>
       <c r="B102" s="272"/>
       <c r="C102" s="273" t="s">
@@ -12610,7 +12610,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="103" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A103" s="271"/>
       <c r="B103" s="272"/>
       <c r="C103" s="279"/>
@@ -12790,7 +12790,7 @@
       <c r="AY103" s="157"/>
       <c r="AZ103" s="158"/>
     </row>
-    <row r="104" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A104" s="271"/>
       <c r="B104" s="272"/>
       <c r="C104" s="273" t="s">
@@ -12892,7 +12892,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="105" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A105" s="271"/>
       <c r="B105" s="272"/>
       <c r="C105" s="273"/>
@@ -12988,7 +12988,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="106" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A106" s="271"/>
       <c r="B106" s="272"/>
       <c r="C106" s="278"/>
@@ -13084,7 +13084,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="107" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A107" s="271"/>
       <c r="B107" s="272"/>
       <c r="C107" s="279"/>
@@ -13264,7 +13264,7 @@
       <c r="AY107" s="157"/>
       <c r="AZ107" s="158"/>
     </row>
-    <row r="108" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A108" s="284"/>
       <c r="B108" s="285"/>
       <c r="C108" s="286" t="s">
@@ -13365,7 +13365,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="109" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A109" s="284"/>
       <c r="B109" s="285"/>
       <c r="C109" s="286"/>
@@ -13460,7 +13460,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="110" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A110" s="284"/>
       <c r="B110" s="285"/>
       <c r="C110" s="293"/>
@@ -13555,7 +13555,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="111" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A111" s="271"/>
       <c r="B111" s="272"/>
       <c r="C111" s="279"/>
@@ -13735,7 +13735,7 @@
       <c r="AY111" s="157"/>
       <c r="AZ111" s="158"/>
     </row>
-    <row r="112" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A112" s="284"/>
       <c r="B112" s="285"/>
       <c r="C112" s="286" t="s">
@@ -13836,7 +13836,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="113" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A113" s="284"/>
       <c r="B113" s="285"/>
       <c r="C113" s="286"/>
@@ -13931,7 +13931,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="114" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A114" s="284"/>
       <c r="B114" s="285"/>
       <c r="C114" s="293"/>
@@ -14026,7 +14026,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="115" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A115" s="284"/>
       <c r="B115" s="285"/>
       <c r="C115" s="295"/>
@@ -14206,7 +14206,7 @@
       <c r="AY115" s="299"/>
       <c r="AZ115" s="300"/>
     </row>
-    <row r="116" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A116" s="284"/>
       <c r="B116" s="285"/>
       <c r="C116" s="286" t="s">
@@ -14307,7 +14307,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="117" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A117" s="284"/>
       <c r="B117" s="285"/>
       <c r="C117" s="286"/>
@@ -14402,7 +14402,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="118" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A118" s="284"/>
       <c r="B118" s="285"/>
       <c r="C118" s="293"/>
@@ -14497,7 +14497,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="119" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A119" s="284"/>
       <c r="B119" s="285"/>
       <c r="C119" s="295"/>
@@ -14677,7 +14677,7 @@
       <c r="AY119" s="299"/>
       <c r="AZ119" s="300"/>
     </row>
-    <row r="120" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A120" s="284"/>
       <c r="B120" s="285"/>
       <c r="C120" s="301" t="s">
@@ -14778,7 +14778,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="121" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A121" s="284"/>
       <c r="B121" s="285"/>
       <c r="C121" s="286"/>
@@ -14873,7 +14873,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="122" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A122" s="284"/>
       <c r="B122" s="285"/>
       <c r="C122" s="286"/>
@@ -14972,7 +14972,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="123" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A123" s="284"/>
       <c r="B123" s="285"/>
       <c r="C123" s="293"/>
@@ -15067,7 +15067,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="124" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A124" s="284"/>
       <c r="B124" s="285"/>
       <c r="C124" s="295"/>
@@ -15247,7 +15247,7 @@
       <c r="AY124" s="299"/>
       <c r="AZ124" s="300"/>
     </row>
-    <row r="125" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A125" s="284"/>
       <c r="B125" s="285"/>
       <c r="C125" s="301" t="s">
@@ -15348,7 +15348,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="126" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A126" s="284"/>
       <c r="B126" s="285"/>
       <c r="C126" s="286"/>
@@ -15443,7 +15443,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="127" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A127" s="284"/>
       <c r="B127" s="285"/>
       <c r="C127" s="293"/>
@@ -15538,7 +15538,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="128" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A128" s="284"/>
       <c r="B128" s="285"/>
       <c r="C128" s="295"/>
@@ -15718,7 +15718,7 @@
       <c r="AY128" s="299"/>
       <c r="AZ128" s="300"/>
     </row>
-    <row r="129" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A129" s="284"/>
       <c r="B129" s="285"/>
       <c r="C129" s="301" t="s">
@@ -15817,7 +15817,7 @@
       </c>
       <c r="AZ129" s="164"/>
     </row>
-    <row r="130" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A130" s="284"/>
       <c r="B130" s="285"/>
       <c r="C130" s="163" t="s">
@@ -15907,7 +15907,10 @@
         <f t="shared" ref="AW130:AW131" si="164">SUM(AR130:AV130)</f>
         <v>0</v>
       </c>
-      <c r="AX130" s="66"/>
+      <c r="AX130" s="66">
+        <f t="shared" ref="AX130:AX131" si="165">U130+AB130+AI130+AP130+AW130</f>
+        <v>0</v>
+      </c>
       <c r="AY130" s="163" t="s">
         <v>117</v>
       </c>
@@ -15915,7 +15918,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="131" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A131" s="284"/>
       <c r="B131" s="285"/>
       <c r="C131" s="163" t="s">
@@ -16005,7 +16008,10 @@
         <f t="shared" si="164"/>
         <v>0</v>
       </c>
-      <c r="AX131" s="66"/>
+      <c r="AX131" s="66">
+        <f t="shared" si="165"/>
+        <v>0</v>
+      </c>
       <c r="AY131" s="163" t="s">
         <v>119</v>
       </c>
@@ -16013,7 +16019,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="132" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A132" s="284"/>
       <c r="B132" s="285"/>
       <c r="C132" s="303" t="s">
@@ -16114,7 +16120,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="133" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A133" s="284"/>
       <c r="B133" s="285"/>
       <c r="C133" s="295"/>
@@ -16148,153 +16154,153 @@
       <c r="M133" s="299"/>
       <c r="N133" s="300"/>
       <c r="O133" s="81">
-        <f t="shared" ref="O133:AX133" si="165">SUM(O129:O132)</f>
+        <f t="shared" ref="O133:AX133" si="166">SUM(O129:O132)</f>
         <v>0</v>
       </c>
       <c r="P133" s="82">
-        <f t="shared" si="165"/>
+        <f t="shared" si="166"/>
         <v>0</v>
       </c>
       <c r="Q133" s="81">
-        <f t="shared" si="165"/>
+        <f t="shared" si="166"/>
         <v>0</v>
       </c>
       <c r="R133" s="81">
-        <f t="shared" si="165"/>
+        <f t="shared" si="166"/>
         <v>0</v>
       </c>
       <c r="S133" s="81">
-        <f t="shared" si="165"/>
+        <f t="shared" si="166"/>
         <v>0</v>
       </c>
       <c r="T133" s="81">
-        <f t="shared" si="165"/>
+        <f t="shared" si="166"/>
         <v>0</v>
       </c>
       <c r="U133" s="283">
-        <f t="shared" si="165"/>
+        <f t="shared" si="166"/>
         <v>0</v>
       </c>
       <c r="V133" s="81">
-        <f t="shared" si="165"/>
+        <f t="shared" si="166"/>
         <v>0</v>
       </c>
       <c r="W133" s="82">
-        <f t="shared" si="165"/>
+        <f t="shared" si="166"/>
         <v>0</v>
       </c>
       <c r="X133" s="81">
-        <f t="shared" si="165"/>
+        <f t="shared" si="166"/>
         <v>0</v>
       </c>
       <c r="Y133" s="81">
-        <f t="shared" si="165"/>
+        <f t="shared" si="166"/>
         <v>0</v>
       </c>
       <c r="Z133" s="81">
-        <f t="shared" si="165"/>
+        <f t="shared" si="166"/>
         <v>0</v>
       </c>
       <c r="AA133" s="81">
-        <f t="shared" si="165"/>
+        <f t="shared" si="166"/>
         <v>0</v>
       </c>
       <c r="AB133" s="283">
-        <f t="shared" si="165"/>
+        <f t="shared" si="166"/>
         <v>0</v>
       </c>
       <c r="AC133" s="81">
-        <f t="shared" si="165"/>
+        <f t="shared" si="166"/>
         <v>0</v>
       </c>
       <c r="AD133" s="82">
-        <f t="shared" si="165"/>
+        <f t="shared" si="166"/>
         <v>0</v>
       </c>
       <c r="AE133" s="81">
-        <f t="shared" si="165"/>
+        <f t="shared" si="166"/>
         <v>0</v>
       </c>
       <c r="AF133" s="81">
-        <f t="shared" si="165"/>
+        <f t="shared" si="166"/>
         <v>0</v>
       </c>
       <c r="AG133" s="81">
-        <f t="shared" si="165"/>
+        <f t="shared" si="166"/>
         <v>0</v>
       </c>
       <c r="AH133" s="81">
-        <f t="shared" si="165"/>
+        <f t="shared" si="166"/>
         <v>0</v>
       </c>
       <c r="AI133" s="283">
-        <f t="shared" si="165"/>
+        <f t="shared" si="166"/>
         <v>0</v>
       </c>
       <c r="AJ133" s="81">
-        <f t="shared" si="165"/>
+        <f t="shared" si="166"/>
         <v>0</v>
       </c>
       <c r="AK133" s="82">
-        <f t="shared" si="165"/>
+        <f t="shared" si="166"/>
         <v>0</v>
       </c>
       <c r="AL133" s="81">
-        <f t="shared" si="165"/>
+        <f t="shared" si="166"/>
         <v>0</v>
       </c>
       <c r="AM133" s="81">
-        <f t="shared" si="165"/>
+        <f t="shared" si="166"/>
         <v>0</v>
       </c>
       <c r="AN133" s="81">
-        <f t="shared" si="165"/>
+        <f t="shared" si="166"/>
         <v>0</v>
       </c>
       <c r="AO133" s="81">
-        <f t="shared" si="165"/>
+        <f t="shared" si="166"/>
         <v>0</v>
       </c>
       <c r="AP133" s="283">
-        <f t="shared" si="165"/>
+        <f t="shared" si="166"/>
         <v>0</v>
       </c>
       <c r="AQ133" s="81">
-        <f t="shared" si="165"/>
+        <f t="shared" si="166"/>
         <v>0</v>
       </c>
       <c r="AR133" s="82">
-        <f t="shared" si="165"/>
+        <f t="shared" si="166"/>
         <v>0</v>
       </c>
       <c r="AS133" s="81">
-        <f t="shared" si="165"/>
+        <f t="shared" si="166"/>
         <v>0</v>
       </c>
       <c r="AT133" s="81">
-        <f t="shared" si="165"/>
+        <f t="shared" si="166"/>
         <v>0</v>
       </c>
       <c r="AU133" s="81">
-        <f t="shared" si="165"/>
+        <f t="shared" si="166"/>
         <v>0</v>
       </c>
       <c r="AV133" s="81">
-        <f t="shared" si="165"/>
+        <f t="shared" si="166"/>
         <v>0</v>
       </c>
       <c r="AW133" s="92">
-        <f t="shared" si="165"/>
+        <f t="shared" si="166"/>
         <v>0</v>
       </c>
       <c r="AX133" s="93">
-        <f t="shared" si="165"/>
+        <f t="shared" si="166"/>
         <v>0</v>
       </c>
       <c r="AY133" s="159"/>
       <c r="AZ133" s="160"/>
     </row>
-    <row r="134" spans="1:52" s="121" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:52" s="121" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A134" s="305"/>
       <c r="B134" s="272"/>
       <c r="C134" s="306" t="s">
@@ -16302,27 +16308,27 @@
       </c>
       <c r="D134" s="131"/>
       <c r="E134" s="124">
-        <f t="shared" ref="E134:J134" si="166">E107+E111+E115+E119+E124+E128+E133+E103</f>
+        <f t="shared" ref="E134:J134" si="167">E107+E111+E115+E119+E124+E128+E133+E103</f>
         <v>0</v>
       </c>
       <c r="F134" s="124">
-        <f t="shared" si="166"/>
+        <f t="shared" si="167"/>
         <v>0</v>
       </c>
       <c r="G134" s="124">
-        <f t="shared" si="166"/>
+        <f t="shared" si="167"/>
         <v>0</v>
       </c>
       <c r="H134" s="124">
-        <f t="shared" si="166"/>
+        <f t="shared" si="167"/>
         <v>0</v>
       </c>
       <c r="I134" s="124">
-        <f t="shared" si="166"/>
+        <f t="shared" si="167"/>
         <v>0</v>
       </c>
       <c r="J134" s="124">
-        <f t="shared" si="166"/>
+        <f t="shared" si="167"/>
         <v>0</v>
       </c>
       <c r="K134" s="265"/>
@@ -16331,139 +16337,150 @@
       <c r="N134" s="308"/>
       <c r="O134" s="309"/>
       <c r="P134" s="310">
-        <f t="shared" ref="P134:U134" si="167">P107+P111+P115+P119+P124+P128+P133+P103</f>
+        <f t="shared" ref="P134:U134" si="168">P107+P111+P115+P119+P124+P128+P133+P103</f>
         <v>0</v>
       </c>
       <c r="Q134" s="309">
-        <f t="shared" si="167"/>
+        <f t="shared" si="168"/>
         <v>0</v>
       </c>
       <c r="R134" s="309">
-        <f t="shared" si="167"/>
+        <f t="shared" si="168"/>
         <v>0</v>
       </c>
       <c r="S134" s="309">
-        <f t="shared" si="167"/>
+        <f t="shared" si="168"/>
         <v>0</v>
       </c>
       <c r="T134" s="319">
-        <f t="shared" si="167"/>
+        <f t="shared" si="168"/>
         <v>0</v>
       </c>
       <c r="U134" s="311">
-        <f t="shared" si="167"/>
+        <f t="shared" si="168"/>
         <v>0</v>
       </c>
       <c r="V134" s="309"/>
       <c r="W134" s="310">
-        <f t="shared" ref="W134:AB134" si="168">W107+W111+W115+W119+W124+W128+W133+W103</f>
+        <f t="shared" ref="W134:AB134" si="169">W107+W111+W115+W119+W124+W128+W133+W103</f>
         <v>0</v>
       </c>
       <c r="X134" s="309">
-        <f t="shared" si="168"/>
+        <f t="shared" si="169"/>
         <v>0</v>
       </c>
       <c r="Y134" s="309">
-        <f t="shared" si="168"/>
+        <f t="shared" si="169"/>
         <v>0</v>
       </c>
       <c r="Z134" s="309">
-        <f t="shared" si="168"/>
+        <f t="shared" si="169"/>
         <v>0</v>
       </c>
       <c r="AA134" s="319">
-        <f t="shared" si="168"/>
+        <f t="shared" si="169"/>
         <v>0</v>
       </c>
       <c r="AB134" s="311">
-        <f t="shared" si="168"/>
+        <f t="shared" si="169"/>
         <v>0</v>
       </c>
       <c r="AC134" s="309"/>
       <c r="AD134" s="310">
-        <f t="shared" ref="AD134:AI134" si="169">AD107+AD111+AD115+AD119+AD124+AD128+AD133+AD103</f>
+        <f t="shared" ref="AD134:AI134" si="170">AD107+AD111+AD115+AD119+AD124+AD128+AD133+AD103</f>
         <v>0</v>
       </c>
       <c r="AE134" s="309">
-        <f t="shared" si="169"/>
+        <f t="shared" si="170"/>
         <v>0</v>
       </c>
       <c r="AF134" s="309">
-        <f t="shared" si="169"/>
+        <f t="shared" si="170"/>
         <v>0</v>
       </c>
       <c r="AG134" s="309">
-        <f t="shared" si="169"/>
+        <f t="shared" si="170"/>
         <v>0</v>
       </c>
       <c r="AH134" s="319">
-        <f t="shared" si="169"/>
+        <f t="shared" si="170"/>
         <v>0</v>
       </c>
       <c r="AI134" s="311">
-        <f t="shared" si="169"/>
+        <f t="shared" si="170"/>
         <v>0</v>
       </c>
       <c r="AJ134" s="309"/>
       <c r="AK134" s="310">
-        <f t="shared" ref="AK134:AP134" si="170">AK107+AK111+AK115+AK119+AK124+AK128+AK133+AK103</f>
+        <f t="shared" ref="AK134:AP134" si="171">AK107+AK111+AK115+AK119+AK124+AK128+AK133+AK103</f>
         <v>0</v>
       </c>
       <c r="AL134" s="309">
-        <f t="shared" si="170"/>
+        <f t="shared" si="171"/>
         <v>0</v>
       </c>
       <c r="AM134" s="309">
-        <f t="shared" si="170"/>
+        <f t="shared" si="171"/>
         <v>0</v>
       </c>
       <c r="AN134" s="309">
-        <f t="shared" si="170"/>
+        <f t="shared" si="171"/>
         <v>0</v>
       </c>
       <c r="AO134" s="319">
-        <f t="shared" si="170"/>
+        <f t="shared" si="171"/>
         <v>0</v>
       </c>
       <c r="AP134" s="311">
-        <f t="shared" si="170"/>
+        <f t="shared" si="171"/>
         <v>0</v>
       </c>
       <c r="AQ134" s="309"/>
       <c r="AR134" s="310">
-        <f t="shared" ref="AR134:AW134" si="171">AR107+AR111+AR115+AR119+AR124+AR128+AR133+AR103</f>
+        <f t="shared" ref="AR134:AW134" si="172">AR107+AR111+AR115+AR119+AR124+AR128+AR133+AR103</f>
         <v>0</v>
       </c>
       <c r="AS134" s="309">
-        <f t="shared" si="171"/>
+        <f t="shared" si="172"/>
         <v>0</v>
       </c>
       <c r="AT134" s="309">
-        <f t="shared" si="171"/>
+        <f t="shared" si="172"/>
         <v>0</v>
       </c>
       <c r="AU134" s="309">
-        <f t="shared" si="171"/>
+        <f t="shared" si="172"/>
         <v>0</v>
       </c>
       <c r="AV134" s="319">
-        <f t="shared" si="171"/>
+        <f t="shared" si="172"/>
         <v>0</v>
       </c>
       <c r="AW134" s="311">
-        <f t="shared" si="171"/>
+        <f t="shared" si="172"/>
         <v>0</v>
       </c>
       <c r="AX134" s="309"/>
       <c r="AY134" s="312"/>
       <c r="AZ134" s="313"/>
     </row>
-    <row r="137" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:52" x14ac:dyDescent="0.25">
       <c r="E137" s="320"/>
       <c r="U137" s="320"/>
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="L1:O1"/>
+    <mergeCell ref="AR3:AV3"/>
+    <mergeCell ref="AK3:AO3"/>
+    <mergeCell ref="AD3:AH3"/>
+    <mergeCell ref="W3:AA3"/>
+    <mergeCell ref="P3:T3"/>
+    <mergeCell ref="AR2:AV2"/>
+    <mergeCell ref="AK2:AO2"/>
+    <mergeCell ref="AD2:AH2"/>
+    <mergeCell ref="W2:AA2"/>
+    <mergeCell ref="P2:T2"/>
     <mergeCell ref="AY69:AZ69"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="AY101:AZ101"/>
@@ -16480,17 +16497,6 @@
     <mergeCell ref="AY28:AZ28"/>
     <mergeCell ref="AY37:AZ37"/>
     <mergeCell ref="AY63:AZ63"/>
-    <mergeCell ref="L1:O1"/>
-    <mergeCell ref="AR3:AV3"/>
-    <mergeCell ref="AK3:AO3"/>
-    <mergeCell ref="AD3:AH3"/>
-    <mergeCell ref="W3:AA3"/>
-    <mergeCell ref="P3:T3"/>
-    <mergeCell ref="AR2:AV2"/>
-    <mergeCell ref="AK2:AO2"/>
-    <mergeCell ref="AD2:AH2"/>
-    <mergeCell ref="W2:AA2"/>
-    <mergeCell ref="P2:T2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
